--- a/testdata/FilePath.xlsx
+++ b/testdata/FilePath.xlsx
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\dongqianqian\Desktop\测试模型\Model1\Case1.ddm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C:\Users\dongqianqian\Desktop\测试模型\Model1\Case2.ddm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,6 +35,10 @@
   </si>
   <si>
     <t>C:\Users\dongqianqian\Desktop\测试模型\Model1\Case4.ddm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\dongqianqian\Desktop\测试模型\A.ddm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,12 +391,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="56.625" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/FilePath.xlsx
+++ b/testdata/FilePath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,19 +26,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\dongqianqian\Desktop\测试模型\Model1\Case2.ddm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\dongqianqian\Desktop\测试模型\Model1\Case3.ddm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\dongqianqian\Desktop\测试模型\Model1\Case4.ddm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\dongqianqian\Desktop\测试模型\A.ddm</t>
+    <t>D:\ATD-AutoModel\Model1.ddm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\ATD-AutoModel\Model2.ddm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\ATD-AutoModel\Model3.ddm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\ATD-AutoModel\Model4.ddm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\ATD-AutoModel\Model5.ddm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\ATD-AutoModel\Model6.ddm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,55 +412,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
